--- a/app/excel/1995/1995-03-29.xlsx
+++ b/app/excel/1995/1995-03-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="136">
   <si>
     <t>RECALL_CLASSIFICATION_DATE</t>
   </si>
@@ -400,9 +400,6 @@
     <t>29 022 Units Were Distributed</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Dade Immunoassay Controls Tri Level Level I Level Ii And Level Iii A Catalog B 5700 5 B Catalog B 5700 6 C Catalog B 5700 7 D Catalog B 5700 8</t>
   </si>
   <si>
@@ -418,22 +415,13 @@
     <t>Texas Michigan California Wisconsin Florida New York</t>
   </si>
   <si>
-    <t>Frozen Scallops 95 710 318</t>
-  </si>
-  <si>
-    <t>N A</t>
-  </si>
-  <si>
-    <t>Of The Presence Therein Of Decomposed Shrim</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MMI</t>
-  </si>
-  <si>
     <t>MMI Barium Enema Kits For Use In X Ray Diagnosis Of The Lower Gastrointestinal Tract A Catalog 354 00 Assembled Empty Barium Enema Kit B Catalog 381 00 Assembled Filled Barium Enema Kit</t>
+  </si>
+  <si>
+    <t>Z-561/564-5</t>
+  </si>
+  <si>
+    <t>MMI, Inc.</t>
   </si>
 </sst>
 </file>
@@ -751,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,10 +1216,10 @@
         <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
         <v>99</v>
@@ -1400,10 +1388,10 @@
         <v>97</v>
       </c>
       <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
         <v>128</v>
-      </c>
-      <c r="E19" t="s">
-        <v>129</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
@@ -1412,55 +1400,20 @@
         <v>124</v>
       </c>
       <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
         <v>130</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>131</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>132</v>
-      </c>
-      <c r="K19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>